--- a/q1_dataFiles/03_TrolleyData_WiSe21_Push_vs_Switch.xlsx
+++ b/q1_dataFiles/03_TrolleyData_WiSe21_Push_vs_Switch.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Google Drive\Uni\Psych\Lehre\Quanti\Quanti1\WiSe2122\Trolley_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CE0ED-DF95-44F9-A377-E692E719BE48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF1F38B-B052-4847-A890-2D5000508595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trolley_Daten_WiSe2122" sheetId="3" r:id="rId1"/>
+    <sheet name="Ergebnisse (Lösung)" sheetId="4" r:id="rId2"/>
+    <sheet name="kompletter_Datensatz (Zusatz)" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Ergebnisse (Lösung)'!$B$2:$B$48</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Ergebnisse (Lösung)'!$C$2:$C$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="29">
   <si>
     <t>number/ sID</t>
   </si>
@@ -33,13 +39,85 @@
     <t xml:space="preserve">answer </t>
   </si>
   <si>
-    <t xml:space="preserve">dilemma </t>
-  </si>
-  <si>
     <t>push</t>
   </si>
   <si>
-    <t>switch</t>
+    <t xml:space="preserve">first dilemma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch </t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>sID</t>
+  </si>
+  <si>
+    <t>Scenario_Order</t>
+  </si>
+  <si>
+    <t>Name_Order</t>
+  </si>
+  <si>
+    <t>Push_query</t>
+  </si>
+  <si>
+    <t>Switch_query</t>
+  </si>
+  <si>
+    <t>Duration (sek)</t>
+  </si>
+  <si>
+    <t>push_switch</t>
+  </si>
+  <si>
+    <t>Carl_Martin</t>
+  </si>
+  <si>
+    <t>Martin_Carl</t>
+  </si>
+  <si>
+    <t>switch_push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch </t>
+  </si>
+  <si>
+    <t>Stabw</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Quartil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Quartil </t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>und größer</t>
+  </si>
+  <si>
+    <t>Häufigkeit</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -71,27 +149,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,10 +168,21 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -126,9 +203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -138,13 +212,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -153,7 +220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -603,7 +678,1483 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reihenfolge 1: erst push, dann switch</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n = 46</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Trolley_Lösung!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Trolley_Lösung!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Trolley_Lösung!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F25-4F0C-B4C2-BD66AC323C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="596446088"/>
+        <c:axId val="596447072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="596446088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Szenario</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596447072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="596447072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596446088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mittelwerte der</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Akzeptabilitätsbewertungen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ergebnisse (Lösung)'!$G$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Push </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switch </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ergebnisse (Lösung)'!$G$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAAE-4527-9EDB-F4897DBBCFBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="338295392"/>
+        <c:axId val="338291648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="338295392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dilemma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338291648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338291648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Akzeptabilität</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338295392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogramm Push</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Häufigkeit</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ergebnisse (Lösung)'!$K$31:$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>und größer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ergebnisse (Lösung)'!$L$31:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3F2-48AD-ACFA-96D9016AAA14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="470548160"/>
+        <c:axId val="521888800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="470548160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Klasse</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="521888800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521888800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="470548160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogramm Switch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Häufigkeit</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ergebnisse (Lösung)'!$K$42:$K$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>und größer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ergebnisse (Lösung)'!$L$42:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F16C-4E6B-8F3B-F6225070CE89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="374734240"/>
+        <c:axId val="374730080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="374734240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Klasse</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="374730080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="374730080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="374734240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Boxplots der Akzeptabilitätsbewertungen</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Boxplots der Akzeptabilitätsbewertungen</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{836C3BBA-21E1-4DF4-9739-2DE47E4E805D}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1142,6 +2693,1527 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1188,16 +4260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>383240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>335615</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>98682</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>13677</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51057</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1220,7 +4292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8631890" y="2390775"/>
+          <a:off x="10327340" y="8058150"/>
           <a:ext cx="5049442" cy="1051902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1237,16 +4309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>392765</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>97490</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>108626</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95119</xdr:rowOff>
+      <xdr:colOff>575351</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1269,7 +4341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8641415" y="1143000"/>
+          <a:off x="9327215" y="2743200"/>
           <a:ext cx="5049861" cy="1047619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1282,6 +4354,644 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>469693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12E2CEC-B9B3-41B3-A74F-CED9427A9834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762876" y="3952875"/>
+          <a:ext cx="8032542" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>389152</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87402027-AC37-48A1-997A-D38FBD7950FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="180975"/>
+          <a:ext cx="10980952" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74818</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460A6C2F-2F4A-4BBC-A1DC-6EF77C7C4A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5448300"/>
+          <a:ext cx="11057143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465353</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>126096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECC562E-B2CA-4A8D-A523-1C62A1250CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="9258301"/>
+          <a:ext cx="9180728" cy="964295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C48CEF-6AAB-431E-8604-FEBC4E7B1C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459BE94C-F107-4CE3-B313-4292E8C4D4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7250765" y="5391150"/>
+          <a:ext cx="2350435" cy="489643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688041</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353108</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA15673-39E1-42AE-BFD2-D17FCE9F5E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4688541" y="5391150"/>
+          <a:ext cx="2341592" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D415E6-37A4-4181-9466-6A9FD2F35C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Diagramm 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9FC737-C6DB-4E65-BE24-CD448FA0EA80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="966787"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678B62BE-4B31-426B-B6FF-44E99674DADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8624EA-EA16-436C-9006-BF47177935DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5559D4B2-5D37-4EA9-9DA5-426B54D0B1AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="866775"/>
+          <a:ext cx="6181725" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Das eigentliche Experiment war etwas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> komplexer. Sie erinnern sich vllt., dass Sie beide Szenarien (Brücke und Weiche) gesehen und beurteilt haben. Was in dem Experiment aber auch manipuliert wurde, war die Reihenfolge der Darbietung der beiden Szenarien. Welche Frage lässt sich durch diese Manipulation beantworten? Antwort: Macht es für die moralische Bewertung einen Unterschied, in welcher Reihenfolge man von den Situationen erfährt? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Legende: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Spalte B: die Reihenfolge der Präsentation der Szenarien </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Spalte C: die Zuordnung der Namen der in den Szenarien dargestellten Personen (nur ein Kontrollfaktor)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Spalte D: die Ratings für das Brückenszenario</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Spalte E: die Ratings für das Weichenszenario </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Spalte F: die Dauer in Sekunden, die die Versuchspersonen für das Experiment gebraucht haben</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Zusatzaufgabe: Erstellen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Sie Abbildungen, die für die Beantwortung der oben gestellten Frage hilfreich wären.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1557,7 +5267,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="26.5703125" style="1" customWidth="1"/>
@@ -1571,26 +5281,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>99</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -1598,13 +5308,13 @@
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -1612,7 +5322,7 @@
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1626,13 +5336,13 @@
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -1640,13 +5350,13 @@
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -1654,7 +5364,7 @@
       <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C7">
@@ -1668,8 +5378,8 @@
       <c r="A8">
         <v>106</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1682,105 +5392,105 @@
       <c r="A9">
         <v>107</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>3</v>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12">
         <v>111</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>3</v>
+      <c r="B13" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>114</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>115</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>116</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C16">
@@ -1794,8 +5504,8 @@
       <c r="A17">
         <v>118</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>3</v>
+      <c r="B17" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1812,25 +5522,25 @@
       <c r="A18">
         <v>119</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
+      <c r="B18" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>120</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C19">
@@ -1840,75 +5550,75 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>121</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>123</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22">
         <v>124</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>126</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>3</v>
+      <c r="B23" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="4"/>
@@ -1920,7 +5630,7 @@
       <c r="A24">
         <v>128</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C24">
@@ -1938,15 +5648,15 @@
       <c r="A25">
         <v>130</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1956,417 +5666,2643 @@
       <c r="A26">
         <v>131</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="A27">
+        <v>132</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="A28">
+        <v>133</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="A29">
+        <v>134</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30">
+        <v>136</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="A31">
+        <v>138</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32">
+        <v>142</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="A33">
+        <v>143</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34">
+        <v>146</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="A35">
+        <v>149</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="A37">
+        <v>151</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="A38">
+        <v>154</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="A39">
+        <v>156</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="A40">
+        <v>157</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="A41">
+        <v>159</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="A42">
+        <v>162</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="A43">
+        <v>163</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="A44">
+        <v>164</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="A45">
+        <v>165</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="A46">
+        <v>166</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="A47">
+        <v>167</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="A48">
+        <v>168</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
+    <sortCondition ref="A2:A48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB79400E-0FC8-4E0D-ACEB-249DA8729521}">
+  <dimension ref="A1:N92"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <f>AVERAGE(C2:C22)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H3" s="12">
+        <f>AVERAGE(C23:C48)</f>
+        <v>4.0769230769230766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <f>_xlfn.STDEV.P(C2:C22)</f>
+        <v>1.4584183648679576</v>
+      </c>
+      <c r="H4" s="1">
+        <f>_xlfn.STDEV.P(C23:C48)</f>
+        <v>1.6153846153846154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>106</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="16">
+        <f>COUNT(C2:C22)</f>
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <f>COUNT(C23:C48)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>112</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>118</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>119</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>124</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>126</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>133</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>134</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>136</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>142</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>154</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>159</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>162</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>164</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>166</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>167</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="1">
+        <f>MIN(C2:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <f>MIN(C23:C48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>101</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1">
+        <f>_xlfn.QUARTILE.EXC(C2:C22,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N23" s="1">
+        <f>_xlfn.QUARTILE.EXC(C23:C48,1)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>102</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1">
+        <f>MEDIAN(C2:C22)</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <f>MEDIAN(C23:C48)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="1">
+        <f>_xlfn.QUARTILE.EXC(C2:C22,3)</f>
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <f>_xlfn.QUARTILE.EXC(C23:C48,3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>107</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1">
+        <f>MAX(C2:C22)</f>
+        <v>6</v>
+      </c>
+      <c r="N26" s="1">
+        <f>MAX(C23:C48)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>109</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>114</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>115</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>116</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="L31" s="8">
+        <v>5</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>121</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="15">
+        <v>2</v>
+      </c>
+      <c r="L32" s="8">
+        <v>8</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>123</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="15">
+        <v>4</v>
+      </c>
+      <c r="L33" s="8">
+        <v>6</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>128</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="13">
+        <v>2</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>130</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>131</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>132</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>138</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>143</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>146</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>149</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="K42" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="L42" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>151</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="K43" s="15">
+        <v>2</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>156</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15">
+        <v>4</v>
+      </c>
+      <c r="L44" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>157</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>163</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>165</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>168</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K42:K44">
+    <sortCondition ref="K42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DA951-E8A1-4C2D-A6D3-A309AAD2B5ED}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>163</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>168</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>